--- a/Code/Results/Cases/Case_3_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002677777513934</v>
+        <v>1.053654235886896</v>
       </c>
       <c r="D2">
-        <v>1.019032882224066</v>
+        <v>1.051906203679656</v>
       </c>
       <c r="E2">
-        <v>1.016319573036984</v>
+        <v>1.059927366696936</v>
       </c>
       <c r="F2">
-        <v>1.023462410887072</v>
+        <v>1.06990769793937</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042808025007952</v>
+        <v>1.04029523161639</v>
       </c>
       <c r="J2">
-        <v>1.024778690639085</v>
+        <v>1.05867044515653</v>
       </c>
       <c r="K2">
-        <v>1.030233277027411</v>
+        <v>1.054656408621604</v>
       </c>
       <c r="L2">
-        <v>1.027556137433709</v>
+        <v>1.06265553713476</v>
       </c>
       <c r="M2">
-        <v>1.03460427479796</v>
+        <v>1.072608950954044</v>
       </c>
       <c r="N2">
-        <v>1.026233993923558</v>
+        <v>1.06017387861985</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.01096177922064</v>
+        <v>1.05527350981188</v>
       </c>
       <c r="D3">
-        <v>1.025316601721837</v>
+        <v>1.053134889736492</v>
       </c>
       <c r="E3">
-        <v>1.023496396096531</v>
+        <v>1.061378307529421</v>
       </c>
       <c r="F3">
-        <v>1.031089128173343</v>
+        <v>1.071463493711631</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045240641951299</v>
+        <v>1.040675615136836</v>
       </c>
       <c r="J3">
-        <v>1.031158011097109</v>
+        <v>1.059937440632246</v>
       </c>
       <c r="K3">
-        <v>1.035635483718833</v>
+        <v>1.05569676588293</v>
       </c>
       <c r="L3">
-        <v>1.033837210237307</v>
+        <v>1.063919194974583</v>
       </c>
       <c r="M3">
-        <v>1.041339090173046</v>
+        <v>1.073979176030893</v>
       </c>
       <c r="N3">
-        <v>1.032622373748344</v>
+        <v>1.061442673374468</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.016148839847898</v>
+        <v>1.056319374806056</v>
       </c>
       <c r="D4">
-        <v>1.029253032159184</v>
+        <v>1.053928016714577</v>
       </c>
       <c r="E4">
-        <v>1.02799680243275</v>
+        <v>1.062315635471433</v>
       </c>
       <c r="F4">
-        <v>1.035873497415423</v>
+        <v>1.072468801277535</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046750587599002</v>
+        <v>1.0409195339805</v>
       </c>
       <c r="J4">
-        <v>1.035148287045339</v>
+        <v>1.060755004938172</v>
       </c>
       <c r="K4">
-        <v>1.03901076712525</v>
+        <v>1.056367473026695</v>
       </c>
       <c r="L4">
-        <v>1.037768676773251</v>
+        <v>1.064734822928517</v>
       </c>
       <c r="M4">
-        <v>1.04555741310655</v>
+        <v>1.074863908668226</v>
       </c>
       <c r="N4">
-        <v>1.036618316346111</v>
+        <v>1.062261398715485</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018290546609903</v>
+        <v>1.056758608553565</v>
       </c>
       <c r="D5">
-        <v>1.030878668018031</v>
+        <v>1.054260995605208</v>
       </c>
       <c r="E5">
-        <v>1.029856467706942</v>
+        <v>1.062709330564589</v>
       </c>
       <c r="F5">
-        <v>1.037850946563871</v>
+        <v>1.07289110700024</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047370780181307</v>
+        <v>1.041021549938661</v>
       </c>
       <c r="J5">
-        <v>1.036794769495919</v>
+        <v>1.061098174148213</v>
       </c>
       <c r="K5">
-        <v>1.040402542077511</v>
+        <v>1.056648852485943</v>
       </c>
       <c r="L5">
-        <v>1.039391513885323</v>
+        <v>1.065077231327845</v>
       </c>
       <c r="M5">
-        <v>1.047299336646425</v>
+        <v>1.075235404680281</v>
       </c>
       <c r="N5">
-        <v>1.038267136990626</v>
+        <v>1.062605055265164</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01864793502624</v>
+        <v>1.056832331862872</v>
       </c>
       <c r="D6">
-        <v>1.031149953480859</v>
+        <v>1.054316877934758</v>
       </c>
       <c r="E6">
-        <v>1.030166875241826</v>
+        <v>1.062775412971551</v>
       </c>
       <c r="F6">
-        <v>1.03818104026571</v>
+        <v>1.072961995149174</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047474078630148</v>
+        <v>1.041038648010345</v>
       </c>
       <c r="J6">
-        <v>1.037069453713715</v>
+        <v>1.061155762631217</v>
       </c>
       <c r="K6">
-        <v>1.040634676546278</v>
+        <v>1.056696063166006</v>
       </c>
       <c r="L6">
-        <v>1.039662289478664</v>
+        <v>1.065134695182215</v>
       </c>
       <c r="M6">
-        <v>1.047590021880061</v>
+        <v>1.075297754596832</v>
       </c>
       <c r="N6">
-        <v>1.038542211291517</v>
+        <v>1.062662725530421</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.016177607236609</v>
+        <v>1.056325245614648</v>
       </c>
       <c r="D7">
-        <v>1.029274866646889</v>
+        <v>1.053932467760145</v>
       </c>
       <c r="E7">
-        <v>1.028021775746317</v>
+        <v>1.062320897438132</v>
       </c>
       <c r="F7">
-        <v>1.035900050679447</v>
+        <v>1.072474445414421</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046758931009519</v>
+        <v>1.040920899191741</v>
       </c>
       <c r="J7">
-        <v>1.035170406960006</v>
+        <v>1.060759592472598</v>
       </c>
       <c r="K7">
-        <v>1.039029468928577</v>
+        <v>1.056371235125795</v>
       </c>
       <c r="L7">
-        <v>1.037790476578909</v>
+        <v>1.064739400088104</v>
       </c>
       <c r="M7">
-        <v>1.045580809941924</v>
+        <v>1.074868874355833</v>
       </c>
       <c r="N7">
-        <v>1.036640467673595</v>
+        <v>1.062265992764735</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005514873320632</v>
+        <v>1.05420187945727</v>
       </c>
       <c r="D8">
-        <v>1.02118444276328</v>
+        <v>1.052321844506075</v>
       </c>
       <c r="E8">
-        <v>1.018776013580895</v>
+        <v>1.060418040227783</v>
       </c>
       <c r="F8">
-        <v>1.026072449541075</v>
+        <v>1.070433780782111</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043643897393886</v>
+        <v>1.040424244206319</v>
       </c>
       <c r="J8">
-        <v>1.026964301407497</v>
+        <v>1.059099106198438</v>
       </c>
       <c r="K8">
-        <v>1.032084904078792</v>
+        <v>1.055008518236636</v>
       </c>
       <c r="L8">
-        <v>1.029707519078378</v>
+        <v>1.063083023826536</v>
       </c>
       <c r="M8">
-        <v>1.036910464933984</v>
+        <v>1.073072422048358</v>
       </c>
       <c r="N8">
-        <v>1.028422708509948</v>
+        <v>1.060603148409606</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9852704831438326</v>
+        <v>1.050445122874364</v>
       </c>
       <c r="D9">
-        <v>1.005846304286983</v>
+        <v>1.049468748108061</v>
       </c>
       <c r="E9">
-        <v>1.001281896973373</v>
+        <v>1.057052893264916</v>
       </c>
       <c r="F9">
-        <v>1.007492408858385</v>
+        <v>1.066826782980914</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037625309172524</v>
+        <v>1.039531991275264</v>
       </c>
       <c r="J9">
-        <v>1.011354319838801</v>
+        <v>1.056155408523367</v>
       </c>
       <c r="K9">
-        <v>1.018845236098005</v>
+        <v>1.052588006141697</v>
       </c>
       <c r="L9">
-        <v>1.014354210474913</v>
+        <v>1.060148289355267</v>
       </c>
       <c r="M9">
-        <v>1.020465085394359</v>
+        <v>1.069891973706075</v>
       </c>
       <c r="N9">
-        <v>1.012790558976934</v>
+        <v>1.057655270346189</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9705893411877136</v>
+        <v>1.047929812552859</v>
       </c>
       <c r="D10">
-        <v>0.9947502359582734</v>
+        <v>1.04755618738903</v>
       </c>
       <c r="E10">
-        <v>0.9886460264411061</v>
+        <v>1.054800829532844</v>
       </c>
       <c r="F10">
-        <v>0.9940823910954549</v>
+        <v>1.064414113794188</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033195398221433</v>
+        <v>1.038925499071536</v>
       </c>
       <c r="J10">
-        <v>1.000020469285177</v>
+        <v>1.054180544969527</v>
       </c>
       <c r="K10">
-        <v>1.009214927882587</v>
+        <v>1.050960998886194</v>
       </c>
       <c r="L10">
-        <v>1.003223351690809</v>
+        <v>1.058180572955171</v>
       </c>
       <c r="M10">
-        <v>1.00855931815621</v>
+        <v>1.067761172073462</v>
       </c>
       <c r="N10">
-        <v>1.001440613055513</v>
+        <v>1.055677602259583</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9638954219781294</v>
+        <v>1.046837948392199</v>
       </c>
       <c r="D11">
-        <v>0.9897004860144692</v>
+        <v>1.046725441377653</v>
       </c>
       <c r="E11">
-        <v>0.9828993371842156</v>
+        <v>1.053823497643691</v>
       </c>
       <c r="F11">
-        <v>0.9879860561897773</v>
+        <v>1.063367379731665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031161631780692</v>
+        <v>1.038660077864401</v>
       </c>
       <c r="J11">
-        <v>0.9948513408791217</v>
+        <v>1.053322356253139</v>
       </c>
       <c r="K11">
-        <v>1.004819285475435</v>
+        <v>1.050253234087366</v>
       </c>
       <c r="L11">
-        <v>0.9981511167983266</v>
+        <v>1.057325760231792</v>
       </c>
       <c r="M11">
-        <v>1.003138150900768</v>
+        <v>1.066835907189416</v>
       </c>
       <c r="N11">
-        <v>0.9962641438942138</v>
+        <v>1.054818194816782</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9613527278923928</v>
+        <v>1.046431960564188</v>
       </c>
       <c r="D12">
-        <v>0.9877840717935396</v>
+        <v>1.046416467101457</v>
       </c>
       <c r="E12">
-        <v>0.9807189145470608</v>
+        <v>1.053460136457913</v>
       </c>
       <c r="F12">
-        <v>0.9856733364567016</v>
+        <v>1.062978260051878</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030387164570079</v>
+        <v>1.038561063642089</v>
       </c>
       <c r="J12">
-        <v>0.9928878068380254</v>
+        <v>1.053003117468278</v>
       </c>
       <c r="K12">
-        <v>1.003149112572929</v>
+        <v>1.049989841078048</v>
       </c>
       <c r="L12">
-        <v>0.9962250730361216</v>
+        <v>1.057007817979259</v>
       </c>
       <c r="M12">
-        <v>1.00108025796884</v>
+        <v>1.066491820096714</v>
       </c>
       <c r="N12">
-        <v>0.9942978214095588</v>
+        <v>1.054498502676229</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9619007916701149</v>
+        <v>1.04651906557807</v>
       </c>
       <c r="D13">
-        <v>0.9881970605436372</v>
+        <v>1.046482761288653</v>
       </c>
       <c r="E13">
-        <v>0.9811887769747083</v>
+        <v>1.053538094060584</v>
       </c>
       <c r="F13">
-        <v>0.9861716912234499</v>
+        <v>1.063061742018548</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030554181467928</v>
+        <v>1.038582321814312</v>
       </c>
       <c r="J13">
-        <v>0.9933110342202338</v>
+        <v>1.053071616662346</v>
       </c>
       <c r="K13">
-        <v>1.003509127113265</v>
+        <v>1.050046362419734</v>
       </c>
       <c r="L13">
-        <v>0.9966401881035285</v>
+        <v>1.05707603713316</v>
       </c>
       <c r="M13">
-        <v>1.001523760538132</v>
+        <v>1.066565646319772</v>
       </c>
       <c r="N13">
-        <v>0.9947216498231948</v>
+        <v>1.054567099147009</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9636864260099444</v>
+        <v>1.046804397969801</v>
       </c>
       <c r="D14">
-        <v>0.9895429297847517</v>
+        <v>1.046699909640074</v>
       </c>
       <c r="E14">
-        <v>0.9827200664689679</v>
+        <v>1.053793469019992</v>
       </c>
       <c r="F14">
-        <v>0.9877959007963809</v>
+        <v>1.063335221486978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031098012981581</v>
+        <v>1.038651902006827</v>
       </c>
       <c r="J14">
-        <v>0.9946899483600889</v>
+        <v>1.053295977504654</v>
       </c>
       <c r="K14">
-        <v>1.004682014525641</v>
+        <v>1.050231472136831</v>
       </c>
       <c r="L14">
-        <v>0.9979927916962641</v>
+        <v>1.057299487785636</v>
       </c>
       <c r="M14">
-        <v>1.002968974244169</v>
+        <v>1.066807473111449</v>
       </c>
       <c r="N14">
-        <v>0.9961025221792921</v>
+        <v>1.054791778607447</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9647789728187657</v>
+        <v>1.04698014452957</v>
       </c>
       <c r="D15">
-        <v>0.9903666428750821</v>
+        <v>1.046833648885386</v>
       </c>
       <c r="E15">
-        <v>0.9836573232750496</v>
+        <v>1.053950769054378</v>
       </c>
       <c r="F15">
-        <v>0.9887900793719758</v>
+        <v>1.063503679012879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031430508771355</v>
+        <v>1.038694716245596</v>
       </c>
       <c r="J15">
-        <v>0.9955336432537019</v>
+        <v>1.053434151151255</v>
       </c>
       <c r="K15">
-        <v>1.005399593609287</v>
+        <v>1.050345458162358</v>
       </c>
       <c r="L15">
-        <v>0.9988204793820614</v>
+        <v>1.057437106279601</v>
       </c>
       <c r="M15">
-        <v>1.003853417834903</v>
+        <v>1.066956416945838</v>
       </c>
       <c r="N15">
-        <v>0.996947415216427</v>
+        <v>1.054930148476476</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9710260333210723</v>
+        <v>1.048002217648857</v>
       </c>
       <c r="D16">
-        <v>0.9950798887656164</v>
+        <v>1.047611265884652</v>
       </c>
       <c r="E16">
-        <v>0.9890212477396246</v>
+        <v>1.054865645182185</v>
       </c>
       <c r="F16">
-        <v>0.9944804922354312</v>
+        <v>1.064483538355468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033327800451214</v>
+        <v>1.03894305479375</v>
       </c>
       <c r="J16">
-        <v>1.000357673627249</v>
+        <v>1.05423743484602</v>
       </c>
       <c r="K16">
-        <v>1.009501608391103</v>
+        <v>1.051007901550958</v>
       </c>
       <c r="L16">
-        <v>1.003554327154823</v>
+        <v>1.058237244727696</v>
       </c>
       <c r="M16">
-        <v>1.008913150233896</v>
+        <v>1.067822522951031</v>
       </c>
       <c r="N16">
-        <v>1.001778296266428</v>
+        <v>1.055734572926225</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9748507257052458</v>
+        <v>1.048642600596481</v>
       </c>
       <c r="D17">
-        <v>0.9979682003942272</v>
+        <v>1.04809834392441</v>
       </c>
       <c r="E17">
-        <v>0.9923092353871298</v>
+        <v>1.055438933834502</v>
       </c>
       <c r="F17">
-        <v>0.9979692447481719</v>
+        <v>1.065097626582608</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034485873358108</v>
+        <v>1.039098077356344</v>
       </c>
       <c r="J17">
-        <v>1.003310878866289</v>
+        <v>1.054740487556759</v>
       </c>
       <c r="K17">
-        <v>1.01201194845126</v>
+        <v>1.051422556471589</v>
       </c>
       <c r="L17">
-        <v>1.00645346884218</v>
+        <v>1.058738400002621</v>
       </c>
       <c r="M17">
-        <v>1.012012974397127</v>
+        <v>1.06836510168382</v>
       </c>
       <c r="N17">
-        <v>1.004735695395646</v>
+        <v>1.056238340029515</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9770495248133798</v>
+        <v>1.049015863718559</v>
       </c>
       <c r="D18">
-        <v>0.999629548987305</v>
+        <v>1.048382198535827</v>
       </c>
       <c r="E18">
-        <v>0.994200839854401</v>
+        <v>1.055773114387029</v>
       </c>
       <c r="F18">
-        <v>0.9999765782781032</v>
+        <v>1.065455618488606</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035150330590684</v>
+        <v>1.03918822887897</v>
       </c>
       <c r="J18">
-        <v>1.00500851839305</v>
+        <v>1.055033615121642</v>
       </c>
       <c r="K18">
-        <v>1.013454679963467</v>
+        <v>1.051664103673138</v>
       </c>
       <c r="L18">
-        <v>1.008120430845096</v>
+        <v>1.059030447940222</v>
       </c>
       <c r="M18">
-        <v>1.013795716023708</v>
+        <v>1.068681327162692</v>
       </c>
       <c r="N18">
-        <v>1.006435745765257</v>
+        <v>1.056531883869162</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.977793975227109</v>
+        <v>1.049143092832266</v>
       </c>
       <c r="D19">
-        <v>1.000192173378676</v>
+        <v>1.048478943510754</v>
       </c>
       <c r="E19">
-        <v>0.9948415056813847</v>
+        <v>1.055887026169315</v>
       </c>
       <c r="F19">
-        <v>1.000656478846526</v>
+        <v>1.065577651661572</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035375069659151</v>
+        <v>1.039218922436181</v>
       </c>
       <c r="J19">
-        <v>1.00558326097364</v>
+        <v>1.055133514370525</v>
       </c>
       <c r="K19">
-        <v>1.01394306486071</v>
+        <v>1.051746412004348</v>
       </c>
       <c r="L19">
-        <v>1.008684854417132</v>
+        <v>1.05912998365463</v>
       </c>
       <c r="M19">
-        <v>1.014399407580937</v>
+        <v>1.068789109513481</v>
       </c>
       <c r="N19">
-        <v>1.007011304546235</v>
+        <v>1.056631924986437</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9744437286355873</v>
+        <v>1.048573920696614</v>
       </c>
       <c r="D20">
-        <v>0.9976607538341046</v>
+        <v>1.048046110955993</v>
       </c>
       <c r="E20">
-        <v>0.9919592080849152</v>
+        <v>1.055377447080377</v>
       </c>
       <c r="F20">
-        <v>0.9975978210810216</v>
+        <v>1.065031761012706</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034362774950022</v>
+        <v>1.039081472907681</v>
       </c>
       <c r="J20">
-        <v>1.002996633313268</v>
+        <v>1.054686545299915</v>
       </c>
       <c r="K20">
-        <v>1.011744861158521</v>
+        <v>1.051378100458221</v>
       </c>
       <c r="L20">
-        <v>1.00614493417996</v>
+        <v>1.058684658515989</v>
       </c>
       <c r="M20">
-        <v>1.011683041834124</v>
+        <v>1.068306914207391</v>
       </c>
       <c r="N20">
-        <v>1.004421003577895</v>
+        <v>1.056184321168478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9631622046174501</v>
+        <v>1.04672038641088</v>
       </c>
       <c r="D21">
-        <v>0.9891477629679283</v>
+        <v>1.046635975923583</v>
       </c>
       <c r="E21">
-        <v>0.9822704450165082</v>
+        <v>1.05371827683284</v>
       </c>
       <c r="F21">
-        <v>0.9873189858253696</v>
+        <v>1.063254697410578</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030938408343345</v>
+        <v>1.038631424132933</v>
       </c>
       <c r="J21">
-        <v>0.9942851300831453</v>
+        <v>1.053229921860652</v>
       </c>
       <c r="K21">
-        <v>1.004337692949928</v>
+        <v>1.050176975740142</v>
       </c>
       <c r="L21">
-        <v>0.9975956785028931</v>
+        <v>1.057233698993272</v>
       </c>
       <c r="M21">
-        <v>1.00254465352269</v>
+        <v>1.066736272339564</v>
       </c>
       <c r="N21">
-        <v>0.9956971290139619</v>
+        <v>1.054725629156855</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9557399760191553</v>
+        <v>1.045552554586788</v>
       </c>
       <c r="D22">
-        <v>0.98355736560911</v>
+        <v>1.045747059866096</v>
       </c>
       <c r="E22">
-        <v>0.9759107181880331</v>
+        <v>1.052673138088313</v>
       </c>
       <c r="F22">
-        <v>0.9805740816097248</v>
+        <v>1.062135553093548</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028674211031797</v>
+        <v>1.03834600016976</v>
       </c>
       <c r="J22">
-        <v>0.9885536547173499</v>
+        <v>1.052311364939847</v>
       </c>
       <c r="K22">
-        <v>0.9994617463851824</v>
+        <v>1.049418897749278</v>
       </c>
       <c r="L22">
-        <v>0.9919749847434389</v>
+        <v>1.056318949458878</v>
       </c>
       <c r="M22">
-        <v>0.9965404485789752</v>
+        <v>1.065746413679867</v>
       </c>
       <c r="N22">
-        <v>0.9899575142957375</v>
+        <v>1.053805767779863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9597079695486331</v>
+        <v>1.046171879932277</v>
       </c>
       <c r="D23">
-        <v>0.9865449593272914</v>
+        <v>1.046218512705331</v>
       </c>
       <c r="E23">
-        <v>0.9793092245793967</v>
+        <v>1.053227374377741</v>
       </c>
       <c r="F23">
-        <v>0.984178217087648</v>
+        <v>1.062729010100439</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029885669984074</v>
+        <v>1.038497543172958</v>
       </c>
       <c r="J23">
-        <v>0.9916176971444423</v>
+        <v>1.052798570387321</v>
       </c>
       <c r="K23">
-        <v>1.002068644375226</v>
+        <v>1.049821045181501</v>
       </c>
       <c r="L23">
-        <v>0.9949794119750949</v>
+        <v>1.056804113099869</v>
       </c>
       <c r="M23">
-        <v>0.9997495095568532</v>
+        <v>1.066271381006102</v>
       </c>
       <c r="N23">
-        <v>0.9930259080145268</v>
+        <v>1.054293665114954</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9746277318091938</v>
+        <v>1.048604954994896</v>
       </c>
       <c r="D24">
-        <v>0.9977997475865952</v>
+        <v>1.048069713557996</v>
       </c>
       <c r="E24">
-        <v>0.9921174510619838</v>
+        <v>1.055405230943888</v>
       </c>
       <c r="F24">
-        <v>0.9977657363807368</v>
+        <v>1.065061523432406</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034418431775552</v>
+        <v>1.039088976579234</v>
       </c>
       <c r="J24">
-        <v>1.003138704037131</v>
+        <v>1.054710920394164</v>
       </c>
       <c r="K24">
-        <v>1.011865612612841</v>
+        <v>1.051398189187415</v>
       </c>
       <c r="L24">
-        <v>1.006284421761157</v>
+        <v>1.058708942807049</v>
       </c>
       <c r="M24">
-        <v>1.011832202129141</v>
+        <v>1.068333207400628</v>
       </c>
       <c r="N24">
-        <v>1.004563276058482</v>
+        <v>1.056208730878158</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9906961937206005</v>
+        <v>1.051418191578537</v>
       </c>
       <c r="D25">
-        <v>1.009953407440334</v>
+        <v>1.050208160233248</v>
       </c>
       <c r="E25">
-        <v>1.005962667204837</v>
+        <v>1.0579243477225</v>
       </c>
       <c r="F25">
-        <v>1.012462000770995</v>
+        <v>1.067760648495534</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039249856977926</v>
+        <v>1.039764702016885</v>
       </c>
       <c r="J25">
-        <v>1.015540776718457</v>
+        <v>1.056918573902545</v>
       </c>
       <c r="K25">
-        <v>1.022399149835765</v>
+        <v>1.053216086730567</v>
       </c>
       <c r="L25">
-        <v>1.01846912028466</v>
+        <v>1.060908932100514</v>
       </c>
       <c r="M25">
-        <v>1.02486989211467</v>
+        <v>1.070716009723065</v>
       </c>
       <c r="N25">
-        <v>1.016982961105552</v>
+        <v>1.058419519507741</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053654235886896</v>
+        <v>1.002677777513935</v>
       </c>
       <c r="D2">
-        <v>1.051906203679656</v>
+        <v>1.019032882224066</v>
       </c>
       <c r="E2">
-        <v>1.059927366696936</v>
+        <v>1.016319573036984</v>
       </c>
       <c r="F2">
-        <v>1.06990769793937</v>
+        <v>1.023462410887072</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04029523161639</v>
+        <v>1.042808025007952</v>
       </c>
       <c r="J2">
-        <v>1.05867044515653</v>
+        <v>1.024778690639086</v>
       </c>
       <c r="K2">
-        <v>1.054656408621604</v>
+        <v>1.030233277027411</v>
       </c>
       <c r="L2">
-        <v>1.06265553713476</v>
+        <v>1.027556137433709</v>
       </c>
       <c r="M2">
-        <v>1.072608950954044</v>
+        <v>1.03460427479796</v>
       </c>
       <c r="N2">
-        <v>1.06017387861985</v>
+        <v>1.026233993923558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05527350981188</v>
+        <v>1.010961779220639</v>
       </c>
       <c r="D3">
-        <v>1.053134889736492</v>
+        <v>1.025316601721836</v>
       </c>
       <c r="E3">
-        <v>1.061378307529421</v>
+        <v>1.02349639609653</v>
       </c>
       <c r="F3">
-        <v>1.071463493711631</v>
+        <v>1.031089128173343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040675615136836</v>
+        <v>1.045240641951299</v>
       </c>
       <c r="J3">
-        <v>1.059937440632246</v>
+        <v>1.031158011097108</v>
       </c>
       <c r="K3">
-        <v>1.05569676588293</v>
+        <v>1.035635483718832</v>
       </c>
       <c r="L3">
-        <v>1.063919194974583</v>
+        <v>1.033837210237306</v>
       </c>
       <c r="M3">
-        <v>1.073979176030893</v>
+        <v>1.041339090173045</v>
       </c>
       <c r="N3">
-        <v>1.061442673374468</v>
+        <v>1.032622373748343</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056319374806056</v>
+        <v>1.016148839847898</v>
       </c>
       <c r="D4">
-        <v>1.053928016714577</v>
+        <v>1.029253032159184</v>
       </c>
       <c r="E4">
-        <v>1.062315635471433</v>
+        <v>1.02799680243275</v>
       </c>
       <c r="F4">
-        <v>1.072468801277535</v>
+        <v>1.035873497415422</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0409195339805</v>
+        <v>1.046750587599002</v>
       </c>
       <c r="J4">
-        <v>1.060755004938172</v>
+        <v>1.035148287045338</v>
       </c>
       <c r="K4">
-        <v>1.056367473026695</v>
+        <v>1.03901076712525</v>
       </c>
       <c r="L4">
-        <v>1.064734822928517</v>
+        <v>1.03776867677325</v>
       </c>
       <c r="M4">
-        <v>1.074863908668226</v>
+        <v>1.045557413106549</v>
       </c>
       <c r="N4">
-        <v>1.062261398715485</v>
+        <v>1.036618316346111</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056758608553565</v>
+        <v>1.018290546609901</v>
       </c>
       <c r="D5">
-        <v>1.054260995605208</v>
+        <v>1.030878668018029</v>
       </c>
       <c r="E5">
-        <v>1.062709330564589</v>
+        <v>1.02985646770694</v>
       </c>
       <c r="F5">
-        <v>1.07289110700024</v>
+        <v>1.037850946563869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041021549938661</v>
+        <v>1.047370780181306</v>
       </c>
       <c r="J5">
-        <v>1.061098174148213</v>
+        <v>1.036794769495917</v>
       </c>
       <c r="K5">
-        <v>1.056648852485943</v>
+        <v>1.040402542077509</v>
       </c>
       <c r="L5">
-        <v>1.065077231327845</v>
+        <v>1.039391513885321</v>
       </c>
       <c r="M5">
-        <v>1.075235404680281</v>
+        <v>1.047299336646423</v>
       </c>
       <c r="N5">
-        <v>1.062605055265164</v>
+        <v>1.038267136990624</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056832331862872</v>
+        <v>1.018647935026239</v>
       </c>
       <c r="D6">
-        <v>1.054316877934758</v>
+        <v>1.031149953480859</v>
       </c>
       <c r="E6">
-        <v>1.062775412971551</v>
+        <v>1.030166875241825</v>
       </c>
       <c r="F6">
-        <v>1.072961995149174</v>
+        <v>1.038181040265709</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041038648010345</v>
+        <v>1.047474078630147</v>
       </c>
       <c r="J6">
-        <v>1.061155762631217</v>
+        <v>1.037069453713714</v>
       </c>
       <c r="K6">
-        <v>1.056696063166006</v>
+        <v>1.040634676546277</v>
       </c>
       <c r="L6">
-        <v>1.065134695182215</v>
+        <v>1.039662289478663</v>
       </c>
       <c r="M6">
-        <v>1.075297754596832</v>
+        <v>1.04759002188006</v>
       </c>
       <c r="N6">
-        <v>1.062662725530421</v>
+        <v>1.038542211291515</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056325245614648</v>
+        <v>1.016177607236608</v>
       </c>
       <c r="D7">
-        <v>1.053932467760145</v>
+        <v>1.029274866646888</v>
       </c>
       <c r="E7">
-        <v>1.062320897438132</v>
+        <v>1.028021775746317</v>
       </c>
       <c r="F7">
-        <v>1.072474445414421</v>
+        <v>1.035900050679446</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040920899191741</v>
+        <v>1.046758931009519</v>
       </c>
       <c r="J7">
-        <v>1.060759592472598</v>
+        <v>1.035170406960005</v>
       </c>
       <c r="K7">
-        <v>1.056371235125795</v>
+        <v>1.039029468928576</v>
       </c>
       <c r="L7">
-        <v>1.064739400088104</v>
+        <v>1.037790476578908</v>
       </c>
       <c r="M7">
-        <v>1.074868874355833</v>
+        <v>1.045580809941922</v>
       </c>
       <c r="N7">
-        <v>1.062265992764735</v>
+        <v>1.036640467673593</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.05420187945727</v>
+        <v>1.005514873320632</v>
       </c>
       <c r="D8">
-        <v>1.052321844506075</v>
+        <v>1.02118444276328</v>
       </c>
       <c r="E8">
-        <v>1.060418040227783</v>
+        <v>1.018776013580895</v>
       </c>
       <c r="F8">
-        <v>1.070433780782111</v>
+        <v>1.026072449541074</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040424244206319</v>
+        <v>1.043643897393885</v>
       </c>
       <c r="J8">
-        <v>1.059099106198438</v>
+        <v>1.026964301407497</v>
       </c>
       <c r="K8">
-        <v>1.055008518236636</v>
+        <v>1.032084904078792</v>
       </c>
       <c r="L8">
-        <v>1.063083023826536</v>
+        <v>1.029707519078378</v>
       </c>
       <c r="M8">
-        <v>1.073072422048358</v>
+        <v>1.036910464933983</v>
       </c>
       <c r="N8">
-        <v>1.060603148409606</v>
+        <v>1.028422708509948</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.050445122874364</v>
+        <v>0.9852704831438344</v>
       </c>
       <c r="D9">
-        <v>1.049468748108061</v>
+        <v>1.005846304286985</v>
       </c>
       <c r="E9">
-        <v>1.057052893264916</v>
+        <v>1.001281896973375</v>
       </c>
       <c r="F9">
-        <v>1.066826782980914</v>
+        <v>1.007492408858387</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039531991275264</v>
+        <v>1.037625309172525</v>
       </c>
       <c r="J9">
-        <v>1.056155408523367</v>
+        <v>1.011354319838803</v>
       </c>
       <c r="K9">
-        <v>1.052588006141697</v>
+        <v>1.018845236098007</v>
       </c>
       <c r="L9">
-        <v>1.060148289355267</v>
+        <v>1.014354210474914</v>
       </c>
       <c r="M9">
-        <v>1.069891973706075</v>
+        <v>1.020465085394361</v>
       </c>
       <c r="N9">
-        <v>1.057655270346189</v>
+        <v>1.012790558976936</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.047929812552859</v>
+        <v>0.9705893411877128</v>
       </c>
       <c r="D10">
-        <v>1.04755618738903</v>
+        <v>0.9947502359582727</v>
       </c>
       <c r="E10">
-        <v>1.054800829532844</v>
+        <v>0.9886460264411056</v>
       </c>
       <c r="F10">
-        <v>1.064414113794188</v>
+        <v>0.9940823910954544</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038925499071536</v>
+        <v>1.033195398221433</v>
       </c>
       <c r="J10">
-        <v>1.054180544969527</v>
+        <v>1.000020469285176</v>
       </c>
       <c r="K10">
-        <v>1.050960998886194</v>
+        <v>1.009214927882587</v>
       </c>
       <c r="L10">
-        <v>1.058180572955171</v>
+        <v>1.003223351690808</v>
       </c>
       <c r="M10">
-        <v>1.067761172073462</v>
+        <v>1.00855931815621</v>
       </c>
       <c r="N10">
-        <v>1.055677602259583</v>
+        <v>1.001440613055512</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.046837948392199</v>
+        <v>0.9638954219781279</v>
       </c>
       <c r="D11">
-        <v>1.046725441377653</v>
+        <v>0.9897004860144681</v>
       </c>
       <c r="E11">
-        <v>1.053823497643691</v>
+        <v>0.9828993371842143</v>
       </c>
       <c r="F11">
-        <v>1.063367379731665</v>
+        <v>0.9879860561897759</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038660077864401</v>
+        <v>1.031161631780692</v>
       </c>
       <c r="J11">
-        <v>1.053322356253139</v>
+        <v>0.9948513408791204</v>
       </c>
       <c r="K11">
-        <v>1.050253234087366</v>
+        <v>1.004819285475434</v>
       </c>
       <c r="L11">
-        <v>1.057325760231792</v>
+        <v>0.9981511167983257</v>
       </c>
       <c r="M11">
-        <v>1.066835907189416</v>
+        <v>1.003138150900767</v>
       </c>
       <c r="N11">
-        <v>1.054818194816782</v>
+        <v>0.9962641438942125</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.046431960564188</v>
+        <v>0.9613527278923913</v>
       </c>
       <c r="D12">
-        <v>1.046416467101457</v>
+        <v>0.9877840717935387</v>
       </c>
       <c r="E12">
-        <v>1.053460136457913</v>
+        <v>0.9807189145470595</v>
       </c>
       <c r="F12">
-        <v>1.062978260051878</v>
+        <v>0.9856733364566999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038561063642089</v>
+        <v>1.030387164570078</v>
       </c>
       <c r="J12">
-        <v>1.053003117468278</v>
+        <v>0.9928878068380241</v>
       </c>
       <c r="K12">
-        <v>1.049989841078048</v>
+        <v>1.003149112572928</v>
       </c>
       <c r="L12">
-        <v>1.057007817979259</v>
+        <v>0.9962250730361202</v>
       </c>
       <c r="M12">
-        <v>1.066491820096714</v>
+        <v>1.001080257968839</v>
       </c>
       <c r="N12">
-        <v>1.054498502676229</v>
+        <v>0.9942978214095575</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04651906557807</v>
+        <v>0.9619007916701144</v>
       </c>
       <c r="D13">
-        <v>1.046482761288653</v>
+        <v>0.9881970605436368</v>
       </c>
       <c r="E13">
-        <v>1.053538094060584</v>
+        <v>0.981188776974708</v>
       </c>
       <c r="F13">
-        <v>1.063061742018548</v>
+        <v>0.9861716912234493</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038582321814312</v>
+        <v>1.030554181467927</v>
       </c>
       <c r="J13">
-        <v>1.053071616662346</v>
+        <v>0.9933110342202334</v>
       </c>
       <c r="K13">
-        <v>1.050046362419734</v>
+        <v>1.003509127113265</v>
       </c>
       <c r="L13">
-        <v>1.05707603713316</v>
+        <v>0.9966401881035279</v>
       </c>
       <c r="M13">
-        <v>1.066565646319772</v>
+        <v>1.001523760538132</v>
       </c>
       <c r="N13">
-        <v>1.054567099147009</v>
+        <v>0.9947216498231943</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.046804397969801</v>
+        <v>0.9636864260099441</v>
       </c>
       <c r="D14">
-        <v>1.046699909640074</v>
+        <v>0.9895429297847517</v>
       </c>
       <c r="E14">
-        <v>1.053793469019992</v>
+        <v>0.9827200664689676</v>
       </c>
       <c r="F14">
-        <v>1.063335221486978</v>
+        <v>0.9877959007963804</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038651902006827</v>
+        <v>1.031098012981581</v>
       </c>
       <c r="J14">
-        <v>1.053295977504654</v>
+        <v>0.9946899483600887</v>
       </c>
       <c r="K14">
-        <v>1.050231472136831</v>
+        <v>1.004682014525641</v>
       </c>
       <c r="L14">
-        <v>1.057299487785636</v>
+        <v>0.9979927916962638</v>
       </c>
       <c r="M14">
-        <v>1.066807473111449</v>
+        <v>1.002968974244168</v>
       </c>
       <c r="N14">
-        <v>1.054791778607447</v>
+        <v>0.9961025221792916</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.04698014452957</v>
+        <v>0.9647789728187659</v>
       </c>
       <c r="D15">
-        <v>1.046833648885386</v>
+        <v>0.9903666428750825</v>
       </c>
       <c r="E15">
-        <v>1.053950769054378</v>
+        <v>0.9836573232750498</v>
       </c>
       <c r="F15">
-        <v>1.063503679012879</v>
+        <v>0.9887900793719762</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038694716245596</v>
+        <v>1.031430508771355</v>
       </c>
       <c r="J15">
-        <v>1.053434151151255</v>
+        <v>0.9955336432537021</v>
       </c>
       <c r="K15">
-        <v>1.050345458162358</v>
+        <v>1.005399593609287</v>
       </c>
       <c r="L15">
-        <v>1.057437106279601</v>
+        <v>0.9988204793820614</v>
       </c>
       <c r="M15">
-        <v>1.066956416945838</v>
+        <v>1.003853417834903</v>
       </c>
       <c r="N15">
-        <v>1.054930148476476</v>
+        <v>0.9969474152164272</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.048002217648857</v>
+        <v>0.9710260333210742</v>
       </c>
       <c r="D16">
-        <v>1.047611265884652</v>
+        <v>0.9950798887656177</v>
       </c>
       <c r="E16">
-        <v>1.054865645182185</v>
+        <v>0.989021247739626</v>
       </c>
       <c r="F16">
-        <v>1.064483538355468</v>
+        <v>0.9944804922354324</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03894305479375</v>
+        <v>1.033327800451214</v>
       </c>
       <c r="J16">
-        <v>1.05423743484602</v>
+        <v>1.00035767362725</v>
       </c>
       <c r="K16">
-        <v>1.051007901550958</v>
+        <v>1.009501608391105</v>
       </c>
       <c r="L16">
-        <v>1.058237244727696</v>
+        <v>1.003554327154824</v>
       </c>
       <c r="M16">
-        <v>1.067822522951031</v>
+        <v>1.008913150233897</v>
       </c>
       <c r="N16">
-        <v>1.055734572926225</v>
+        <v>1.00177829626643</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.048642600596481</v>
+        <v>0.9748507257052441</v>
       </c>
       <c r="D17">
-        <v>1.04809834392441</v>
+        <v>0.9979682003942258</v>
       </c>
       <c r="E17">
-        <v>1.055438933834502</v>
+        <v>0.9923092353871282</v>
       </c>
       <c r="F17">
-        <v>1.065097626582608</v>
+        <v>0.9979692447481703</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039098077356344</v>
+        <v>1.034485873358107</v>
       </c>
       <c r="J17">
-        <v>1.054740487556759</v>
+        <v>1.003310878866288</v>
       </c>
       <c r="K17">
-        <v>1.051422556471589</v>
+        <v>1.012011948451259</v>
       </c>
       <c r="L17">
-        <v>1.058738400002621</v>
+        <v>1.006453468842178</v>
       </c>
       <c r="M17">
-        <v>1.06836510168382</v>
+        <v>1.012012974397125</v>
       </c>
       <c r="N17">
-        <v>1.056238340029515</v>
+        <v>1.004735695395644</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049015863718559</v>
+        <v>0.9770495248133799</v>
       </c>
       <c r="D18">
-        <v>1.048382198535827</v>
+        <v>0.9996295489873047</v>
       </c>
       <c r="E18">
-        <v>1.055773114387029</v>
+        <v>0.9942008398544008</v>
       </c>
       <c r="F18">
-        <v>1.065455618488606</v>
+        <v>0.9999765782781029</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03918822887897</v>
+        <v>1.035150330590684</v>
       </c>
       <c r="J18">
-        <v>1.055033615121642</v>
+        <v>1.00500851839305</v>
       </c>
       <c r="K18">
-        <v>1.051664103673138</v>
+        <v>1.013454679963466</v>
       </c>
       <c r="L18">
-        <v>1.059030447940222</v>
+        <v>1.008120430845096</v>
       </c>
       <c r="M18">
-        <v>1.068681327162692</v>
+        <v>1.013795716023708</v>
       </c>
       <c r="N18">
-        <v>1.056531883869162</v>
+        <v>1.006435745765257</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.049143092832266</v>
+        <v>0.977793975227106</v>
       </c>
       <c r="D19">
-        <v>1.048478943510754</v>
+        <v>1.000192173378674</v>
       </c>
       <c r="E19">
-        <v>1.055887026169315</v>
+        <v>0.9948415056813819</v>
       </c>
       <c r="F19">
-        <v>1.065577651661572</v>
+        <v>1.000656478846524</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039218922436181</v>
+        <v>1.03537506965915</v>
       </c>
       <c r="J19">
-        <v>1.055133514370525</v>
+        <v>1.005583260973637</v>
       </c>
       <c r="K19">
-        <v>1.051746412004348</v>
+        <v>1.013943064860707</v>
       </c>
       <c r="L19">
-        <v>1.05912998365463</v>
+        <v>1.008684854417129</v>
       </c>
       <c r="M19">
-        <v>1.068789109513481</v>
+        <v>1.014399407580934</v>
       </c>
       <c r="N19">
-        <v>1.056631924986437</v>
+        <v>1.007011304546232</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.048573920696614</v>
+        <v>0.9744437286355867</v>
       </c>
       <c r="D20">
-        <v>1.048046110955993</v>
+        <v>0.9976607538341041</v>
       </c>
       <c r="E20">
-        <v>1.055377447080377</v>
+        <v>0.9919592080849147</v>
       </c>
       <c r="F20">
-        <v>1.065031761012706</v>
+        <v>0.997597821081021</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039081472907681</v>
+        <v>1.034362774950021</v>
       </c>
       <c r="J20">
-        <v>1.054686545299915</v>
+        <v>1.002996633313268</v>
       </c>
       <c r="K20">
-        <v>1.051378100458221</v>
+        <v>1.011744861158521</v>
       </c>
       <c r="L20">
-        <v>1.058684658515989</v>
+        <v>1.006144934179959</v>
       </c>
       <c r="M20">
-        <v>1.068306914207391</v>
+        <v>1.011683041834124</v>
       </c>
       <c r="N20">
-        <v>1.056184321168478</v>
+        <v>1.004421003577894</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.04672038641088</v>
+        <v>0.9631622046174497</v>
       </c>
       <c r="D21">
-        <v>1.046635975923583</v>
+        <v>0.9891477629679283</v>
       </c>
       <c r="E21">
-        <v>1.05371827683284</v>
+        <v>0.9822704450165081</v>
       </c>
       <c r="F21">
-        <v>1.063254697410578</v>
+        <v>0.9873189858253694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038631424132933</v>
+        <v>1.030938408343345</v>
       </c>
       <c r="J21">
-        <v>1.053229921860652</v>
+        <v>0.9942851300831451</v>
       </c>
       <c r="K21">
-        <v>1.050176975740142</v>
+        <v>1.004337692949928</v>
       </c>
       <c r="L21">
-        <v>1.057233698993272</v>
+        <v>0.9975956785028928</v>
       </c>
       <c r="M21">
-        <v>1.066736272339564</v>
+        <v>1.00254465352269</v>
       </c>
       <c r="N21">
-        <v>1.054725629156855</v>
+        <v>0.9956971290139618</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.045552554586788</v>
+        <v>0.9557399760191547</v>
       </c>
       <c r="D22">
-        <v>1.045747059866096</v>
+        <v>0.9835573656091096</v>
       </c>
       <c r="E22">
-        <v>1.052673138088313</v>
+        <v>0.9759107181880324</v>
       </c>
       <c r="F22">
-        <v>1.062135553093548</v>
+        <v>0.9805740816097244</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03834600016976</v>
+        <v>1.028674211031797</v>
       </c>
       <c r="J22">
-        <v>1.052311364939847</v>
+        <v>0.9885536547173495</v>
       </c>
       <c r="K22">
-        <v>1.049418897749278</v>
+        <v>0.9994617463851819</v>
       </c>
       <c r="L22">
-        <v>1.056318949458878</v>
+        <v>0.9919749847434383</v>
       </c>
       <c r="M22">
-        <v>1.065746413679867</v>
+        <v>0.9965404485789746</v>
       </c>
       <c r="N22">
-        <v>1.053805767779863</v>
+        <v>0.989957514295737</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.046171879932277</v>
+        <v>0.9597079695486331</v>
       </c>
       <c r="D23">
-        <v>1.046218512705331</v>
+        <v>0.9865449593272914</v>
       </c>
       <c r="E23">
-        <v>1.053227374377741</v>
+        <v>0.9793092245793967</v>
       </c>
       <c r="F23">
-        <v>1.062729010100439</v>
+        <v>0.9841782170876477</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038497543172958</v>
+        <v>1.029885669984074</v>
       </c>
       <c r="J23">
-        <v>1.052798570387321</v>
+        <v>0.9916176971444423</v>
       </c>
       <c r="K23">
-        <v>1.049821045181501</v>
+        <v>1.002068644375226</v>
       </c>
       <c r="L23">
-        <v>1.056804113099869</v>
+        <v>0.994979411975095</v>
       </c>
       <c r="M23">
-        <v>1.066271381006102</v>
+        <v>0.9997495095568529</v>
       </c>
       <c r="N23">
-        <v>1.054293665114954</v>
+        <v>0.9930259080145271</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.048604954994896</v>
+        <v>0.9746277318091946</v>
       </c>
       <c r="D24">
-        <v>1.048069713557996</v>
+        <v>0.9977997475865961</v>
       </c>
       <c r="E24">
-        <v>1.055405230943888</v>
+        <v>0.992117451061984</v>
       </c>
       <c r="F24">
-        <v>1.065061523432406</v>
+        <v>0.997765736380737</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039088976579234</v>
+        <v>1.034418431775552</v>
       </c>
       <c r="J24">
-        <v>1.054710920394164</v>
+        <v>1.003138704037132</v>
       </c>
       <c r="K24">
-        <v>1.051398189187415</v>
+        <v>1.011865612612842</v>
       </c>
       <c r="L24">
-        <v>1.058708942807049</v>
+        <v>1.006284421761157</v>
       </c>
       <c r="M24">
-        <v>1.068333207400628</v>
+        <v>1.011832202129141</v>
       </c>
       <c r="N24">
-        <v>1.056208730878158</v>
+        <v>1.004563276058483</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051418191578537</v>
+        <v>0.9906961937205999</v>
       </c>
       <c r="D25">
-        <v>1.050208160233248</v>
+        <v>1.009953407440333</v>
       </c>
       <c r="E25">
-        <v>1.0579243477225</v>
+        <v>1.005962667204836</v>
       </c>
       <c r="F25">
-        <v>1.067760648495534</v>
+        <v>1.012462000770995</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039764702016885</v>
+        <v>1.039249856977926</v>
       </c>
       <c r="J25">
-        <v>1.056918573902545</v>
+        <v>1.015540776718457</v>
       </c>
       <c r="K25">
-        <v>1.053216086730567</v>
+        <v>1.022399149835765</v>
       </c>
       <c r="L25">
-        <v>1.060908932100514</v>
+        <v>1.018469120284659</v>
       </c>
       <c r="M25">
-        <v>1.070716009723065</v>
+        <v>1.024869892114669</v>
       </c>
       <c r="N25">
-        <v>1.058419519507741</v>
+        <v>1.016982961105552</v>
       </c>
     </row>
   </sheetData>
